--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268111.47</v>
+        <v>260919.21</v>
       </c>
     </row>
     <row r="6">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>264515.34</v>
+        <v>257323.08</v>
       </c>
     </row>
     <row r="43">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>724863</v>
+        <v>239547</v>
       </c>
     </row>
     <row r="46">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>76525</v>
+        <v>130305</v>
       </c>
     </row>
     <row r="47">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>187463</v>
+        <v>232275</v>
       </c>
     </row>
     <row r="48">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>268111.47</v>
+        <v>419948.07</v>
       </c>
     </row>
     <row r="49">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4707</v>
+        <v>58895.125</v>
       </c>
     </row>
     <row r="52">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>343700</v>
+        <v>378070</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1362,7 @@
         <v>43738</v>
       </c>
       <c r="C15" t="n">
-        <v>724863</v>
+        <v>239547</v>
       </c>
     </row>
     <row r="16">
@@ -1453,7 +1453,7 @@
         <v>43738</v>
       </c>
       <c r="C22" t="n">
-        <v>76525</v>
+        <v>130305</v>
       </c>
     </row>
     <row r="23">
@@ -1583,7 +1583,7 @@
         <v>43738</v>
       </c>
       <c r="C32" t="n">
-        <v>187463</v>
+        <v>232275</v>
       </c>
     </row>
     <row r="33">
@@ -1596,7 +1596,7 @@
         <v>43644</v>
       </c>
       <c r="C33" t="n">
-        <v>264515.34</v>
+        <v>257323.08</v>
       </c>
     </row>
     <row r="34">
@@ -1609,7 +1609,7 @@
         <v>43738</v>
       </c>
       <c r="C34" t="n">
-        <v>268111.47</v>
+        <v>419948.07</v>
       </c>
     </row>
     <row r="35">
@@ -1765,7 +1765,7 @@
         <v>43738</v>
       </c>
       <c r="C46" t="n">
-        <v>4707</v>
+        <v>58895.125</v>
       </c>
     </row>
     <row r="47">
@@ -1843,7 +1843,7 @@
         <v>43738</v>
       </c>
       <c r="C52" t="n">
-        <v>343700</v>
+        <v>378070</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1954,7 @@
         <v>43644</v>
       </c>
       <c r="B11" t="n">
-        <v>980890.8400000003</v>
+        <v>973698.5800000003</v>
       </c>
     </row>
     <row r="12">
@@ -1962,7 +1962,7 @@
         <v>43738</v>
       </c>
       <c r="B12" t="n">
-        <v>1650497.97</v>
+        <v>1504168.695</v>
       </c>
     </row>
   </sheetData>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>72894</v>
+        <v>74126</v>
       </c>
     </row>
     <row r="45">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>141847.35</v>
+        <v>301275.78</v>
       </c>
     </row>
     <row r="47">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4707</v>
+        <v>58895.125</v>
       </c>
     </row>
     <row r="50">
@@ -2944,7 +2944,7 @@
         <v>43738</v>
       </c>
       <c r="C22" t="n">
-        <v>72894</v>
+        <v>74126</v>
       </c>
     </row>
     <row r="23">
@@ -3100,7 +3100,7 @@
         <v>43738</v>
       </c>
       <c r="C34" t="n">
-        <v>141847.35</v>
+        <v>301275.78</v>
       </c>
     </row>
     <row r="35">
@@ -3243,7 +3243,7 @@
         <v>43738</v>
       </c>
       <c r="C45" t="n">
-        <v>4707</v>
+        <v>58895.125</v>
       </c>
     </row>
     <row r="46">
@@ -3427,7 +3427,7 @@
         <v>43738</v>
       </c>
       <c r="B12" t="n">
-        <v>717183.8499999999</v>
+        <v>932032.4049999999</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop_tools\python_project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA25FD-7913-41C8-8E55-8B17701F3F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rev_2019-04_To_2019-06" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <sheet name="Booking Total BySPL" sheetId="6" r:id="rId6"/>
     <sheet name="Booking Total ByQ" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -67,15 +61,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,15 +77,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,32 +117,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -197,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,27 +207,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,24 +241,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,14 +416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -497,7 +439,7 @@
         <v>177327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -505,7 +447,7 @@
         <v>223076</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -513,7 +455,7 @@
         <v>225512</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -521,7 +463,7 @@
         <v>11409.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -530,20 +472,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -554,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>42825</v>
       </c>
@@ -565,7 +506,7 @@
         <v>158661</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>42825</v>
       </c>
@@ -576,7 +517,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>42916</v>
       </c>
@@ -587,7 +528,7 @@
         <v>295545</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>42916</v>
       </c>
@@ -598,7 +539,7 @@
         <v>115107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>42916</v>
       </c>
@@ -609,7 +550,7 @@
         <v>300478</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>42916</v>
       </c>
@@ -620,7 +561,7 @@
         <v>42959.375</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43007</v>
       </c>
@@ -631,7 +572,7 @@
         <v>584868</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43007</v>
       </c>
@@ -642,7 +583,7 @@
         <v>424674</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43098</v>
       </c>
@@ -653,7 +594,7 @@
         <v>143151</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43098</v>
       </c>
@@ -664,7 +605,7 @@
         <v>802638</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43098</v>
       </c>
@@ -675,7 +616,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43098</v>
       </c>
@@ -686,7 +627,7 @@
         <v>371599</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>43098</v>
       </c>
@@ -697,7 +638,7 @@
         <v>50724.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>43189</v>
       </c>
@@ -708,7 +649,7 @@
         <v>149328</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>43189</v>
       </c>
@@ -719,7 +660,7 @@
         <v>26854</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43189</v>
       </c>
@@ -730,7 +671,7 @@
         <v>401917</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43189</v>
       </c>
@@ -741,7 +682,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43280</v>
       </c>
@@ -752,7 +693,7 @@
         <v>332877</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43280</v>
       </c>
@@ -763,7 +704,7 @@
         <v>209361</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>43280</v>
       </c>
@@ -774,7 +715,7 @@
         <v>85918.75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43280</v>
       </c>
@@ -785,7 +726,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43371</v>
       </c>
@@ -796,7 +737,7 @@
         <v>36996</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43371</v>
       </c>
@@ -807,7 +748,7 @@
         <v>320433</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43371</v>
       </c>
@@ -818,7 +759,7 @@
         <v>629631</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>43371</v>
       </c>
@@ -829,7 +770,7 @@
         <v>139188.375</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43371</v>
       </c>
@@ -840,7 +781,7 @@
         <v>172613</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43465</v>
       </c>
@@ -851,7 +792,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43465</v>
       </c>
@@ -862,7 +803,7 @@
         <v>258213</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43465</v>
       </c>
@@ -873,7 +814,7 @@
         <v>578165</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43465</v>
       </c>
@@ -884,7 +825,7 @@
         <v>46396.125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>43465</v>
       </c>
@@ -895,7 +836,7 @@
         <v>540372</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43553</v>
       </c>
@@ -906,7 +847,7 @@
         <v>96441</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>43553</v>
       </c>
@@ -917,7 +858,7 @@
         <v>54134</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>43553</v>
       </c>
@@ -928,7 +869,7 @@
         <v>329037</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>43553</v>
       </c>
@@ -939,7 +880,7 @@
         <v>27947.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>43553</v>
       </c>
@@ -950,7 +891,7 @@
         <v>12493</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>43553</v>
       </c>
@@ -961,7 +902,7 @@
         <v>41244</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>43644</v>
       </c>
@@ -972,7 +913,7 @@
         <v>177327</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>43644</v>
       </c>
@@ -983,7 +924,7 @@
         <v>223076</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>43644</v>
       </c>
@@ -994,7 +935,7 @@
         <v>225512</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>43644</v>
       </c>
@@ -1005,7 +946,7 @@
         <v>11409.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>43644</v>
       </c>
@@ -1016,7 +957,7 @@
         <v>79051</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43738</v>
       </c>
@@ -1027,7 +968,7 @@
         <v>239547</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>43738</v>
       </c>
@@ -1038,7 +979,7 @@
         <v>130305</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>43738</v>
       </c>
@@ -1049,7 +990,7 @@
         <v>232275</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>43738</v>
       </c>
@@ -1060,7 +1001,7 @@
         <v>34847.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>43738</v>
       </c>
@@ -1071,7 +1012,7 @@
         <v>10281</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>43738</v>
       </c>
@@ -1082,7 +1023,7 @@
         <v>58895.125</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>43738</v>
       </c>
@@ -1094,20 +1035,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1069,7 @@
         <v>143151</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1080,7 @@
         <v>36996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1091,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1102,7 @@
         <v>158661</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1113,7 @@
         <v>295545</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1184,7 +1124,7 @@
         <v>584868</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1135,7 @@
         <v>802638</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1206,7 +1146,7 @@
         <v>149328</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1217,7 +1157,7 @@
         <v>332877</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1168,7 @@
         <v>320433</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1179,7 @@
         <v>258213</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +1190,7 @@
         <v>96441</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1201,7 @@
         <v>177327</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1212,7 @@
         <v>239547</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1223,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1294,7 +1234,7 @@
         <v>115107</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1305,7 +1245,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1256,7 @@
         <v>26854</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1267,7 @@
         <v>54134</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1278,7 @@
         <v>223076</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1289,7 @@
         <v>130305</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1300,7 @@
         <v>300478</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1371,7 +1311,7 @@
         <v>424674</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1322,7 @@
         <v>371599</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +1333,7 @@
         <v>401917</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1344,7 @@
         <v>209361</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1355,7 @@
         <v>629631</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1366,7 @@
         <v>578165</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1377,7 @@
         <v>329037</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1448,7 +1388,7 @@
         <v>225512</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1459,7 +1399,7 @@
         <v>232275</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1410,7 @@
         <v>27947.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1421,7 @@
         <v>34847.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1492,7 +1432,7 @@
         <v>10281</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1443,7 @@
         <v>42959.375</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1454,7 @@
         <v>50724.75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1525,7 +1465,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +1476,7 @@
         <v>85918.75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1487,7 @@
         <v>139188.375</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1498,7 @@
         <v>46396.125</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1509,7 @@
         <v>12493</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1580,7 +1520,7 @@
         <v>11409.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1591,7 +1531,7 @@
         <v>58895.125</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1602,7 +1542,7 @@
         <v>52696</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1613,7 +1553,7 @@
         <v>172613</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1564,7 @@
         <v>540372</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1635,7 +1575,7 @@
         <v>41244</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1586,7 @@
         <v>79051</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1658,26 +1598,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1685,110 +1618,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42825</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>164883</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42916</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>754089.375</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43007</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1009542</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43098</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1369344.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43189</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>580529</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43280</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>680852.75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43371</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1298861.375</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43465</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>1432395.125</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43553</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>561296.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43644</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>716375.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43738</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1084220.625</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1799,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>42825</v>
       </c>
@@ -1810,7 +1741,7 @@
         <v>49776</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>42825</v>
       </c>
@@ -1821,7 +1752,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>42916</v>
       </c>
@@ -1832,7 +1763,7 @@
         <v>363987</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>42916</v>
       </c>
@@ -1843,7 +1774,7 @@
         <v>115107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>42916</v>
       </c>
@@ -1854,7 +1785,7 @@
         <v>195719</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>42916</v>
       </c>
@@ -1865,7 +1796,7 @@
         <v>42959.375</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43007</v>
       </c>
@@ -1876,7 +1807,7 @@
         <v>535092</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43007</v>
       </c>
@@ -1887,7 +1818,7 @@
         <v>353403</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43098</v>
       </c>
@@ -1898,7 +1829,7 @@
         <v>76936</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43098</v>
       </c>
@@ -1909,7 +1840,7 @@
         <v>261324</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43098</v>
       </c>
@@ -1920,7 +1851,7 @@
         <v>287661</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43098</v>
       </c>
@@ -1931,7 +1862,7 @@
         <v>50724.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>43189</v>
       </c>
@@ -1942,7 +1873,7 @@
         <v>66215</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>43189</v>
       </c>
@@ -1953,7 +1884,7 @@
         <v>158661</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>43189</v>
       </c>
@@ -1964,7 +1895,7 @@
         <v>28086</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43189</v>
       </c>
@@ -1975,7 +1906,7 @@
         <v>497288</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43189</v>
       </c>
@@ -1986,7 +1917,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43280</v>
       </c>
@@ -1997,7 +1928,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43280</v>
       </c>
@@ -2008,7 +1939,7 @@
         <v>88765</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>43280</v>
       </c>
@@ -2019,7 +1950,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43371</v>
       </c>
@@ -2030,7 +1961,7 @@
         <v>36996</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43371</v>
       </c>
@@ -2041,7 +1972,7 @@
         <v>258213</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43371</v>
       </c>
@@ -2052,7 +1983,7 @@
         <v>282725</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43371</v>
       </c>
@@ -2063,7 +1994,7 @@
         <v>70453.375</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>43371</v>
       </c>
@@ -2074,7 +2005,7 @@
         <v>207361</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43465</v>
       </c>
@@ -2085,7 +2016,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43465</v>
       </c>
@@ -2096,7 +2027,7 @@
         <v>292434</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43465</v>
       </c>
@@ -2107,7 +2038,7 @@
         <v>617557</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43465</v>
       </c>
@@ -2118,7 +2049,7 @@
         <v>282597</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43553</v>
       </c>
@@ -2129,7 +2060,7 @@
         <v>158661</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>43553</v>
       </c>
@@ -2140,7 +2071,7 @@
         <v>54134</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43553</v>
       </c>
@@ -2151,7 +2082,7 @@
         <v>486121</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>43553</v>
       </c>
@@ -2162,7 +2093,7 @@
         <v>27947.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>43553</v>
       </c>
@@ -2173,7 +2104,7 @@
         <v>12493</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>43553</v>
       </c>
@@ -2184,7 +2115,7 @@
         <v>48118</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>43644</v>
       </c>
@@ -2195,7 +2126,7 @@
         <v>87108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>43644</v>
       </c>
@@ -2206,7 +2137,7 @@
         <v>203380</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>43644</v>
       </c>
@@ -2217,7 +2148,7 @@
         <v>146728</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>43644</v>
       </c>
@@ -2228,7 +2159,7 @@
         <v>10923.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>43644</v>
       </c>
@@ -2239,7 +2170,7 @@
         <v>79051</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>43738</v>
       </c>
@@ -2250,7 +2181,7 @@
         <v>111996</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>43738</v>
       </c>
@@ -2261,7 +2192,7 @@
         <v>74126</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43738</v>
       </c>
@@ -2272,7 +2203,7 @@
         <v>97730</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>43738</v>
       </c>
@@ -2283,7 +2214,7 @@
         <v>34847.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>43738</v>
       </c>
@@ -2294,7 +2225,7 @@
         <v>9135</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>43738</v>
       </c>
@@ -2305,7 +2236,7 @@
         <v>58895.125</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>43738</v>
       </c>
@@ -2317,20 +2248,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2352,7 +2282,7 @@
         <v>76936</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2363,7 +2293,7 @@
         <v>66215</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2374,7 +2304,7 @@
         <v>36996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2315,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2326,7 @@
         <v>49776</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2407,7 +2337,7 @@
         <v>363987</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2418,7 +2348,7 @@
         <v>535092</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2429,7 +2359,7 @@
         <v>261324</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2440,7 +2370,7 @@
         <v>158661</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2451,7 +2381,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2462,7 +2392,7 @@
         <v>258213</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2473,7 +2403,7 @@
         <v>292434</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2484,7 +2414,7 @@
         <v>158661</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2495,7 +2425,7 @@
         <v>87108</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2506,7 +2436,7 @@
         <v>111996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2517,7 +2447,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2528,7 +2458,7 @@
         <v>115107</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2539,7 +2469,7 @@
         <v>28086</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2550,7 +2480,7 @@
         <v>54134</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2561,7 +2491,7 @@
         <v>203380</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2572,7 +2502,7 @@
         <v>74126</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2513,7 @@
         <v>195719</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2594,7 +2524,7 @@
         <v>353403</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2535,7 @@
         <v>287661</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2546,7 @@
         <v>497288</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2557,7 @@
         <v>88765</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2638,7 +2568,7 @@
         <v>282725</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2649,7 +2579,7 @@
         <v>617557</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2590,7 @@
         <v>486121</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2671,7 +2601,7 @@
         <v>146728</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2682,7 +2612,7 @@
         <v>97730</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2693,7 +2623,7 @@
         <v>27947.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2704,7 +2634,7 @@
         <v>34847.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2715,7 +2645,7 @@
         <v>9135</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2726,7 +2656,7 @@
         <v>42959.375</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2737,7 +2667,7 @@
         <v>50724.75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2748,7 +2678,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2759,7 +2689,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2700,7 @@
         <v>70453.375</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2781,7 +2711,7 @@
         <v>12493</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2792,7 +2722,7 @@
         <v>10923.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2803,7 +2733,7 @@
         <v>58895.125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2814,7 +2744,7 @@
         <v>207361</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2825,7 +2755,7 @@
         <v>282597</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2836,7 +2766,7 @@
         <v>48118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2847,7 +2777,7 @@
         <v>79051</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2859,20 +2789,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2880,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42825</v>
       </c>
@@ -2888,7 +2817,7 @@
         <v>55998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42916</v>
       </c>
@@ -2896,7 +2825,7 @@
         <v>717772.375</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43007</v>
       </c>
@@ -2904,7 +2833,7 @@
         <v>888495</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43098</v>
       </c>
@@ -2912,7 +2841,7 @@
         <v>676645.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43189</v>
       </c>
@@ -2920,7 +2849,7 @@
         <v>751708</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43280</v>
       </c>
@@ -2928,7 +2857,7 @@
         <v>133291</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43371</v>
       </c>
@@ -2936,7 +2865,7 @@
         <v>855748.375</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43465</v>
       </c>
@@ -2944,7 +2873,7 @@
         <v>1201837</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43553</v>
       </c>
@@ -2952,7 +2881,7 @@
         <v>787474.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43644</v>
       </c>
@@ -2960,7 +2889,7 @@
         <v>527190.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43738</v>
       </c>
@@ -2969,7 +2898,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>